--- a/Assets/06.Table/DokebiAbilBase.xlsx
+++ b/Assets/06.Table/DokebiAbilBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071E572-F93B-4EB1-8953-157F577F14E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12580BAA-8DE4-4604-8096-09ACA8B33769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1200" windowWidth="12255" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiAbilBase" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.4999999999999993E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
